--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2549147.423421449</v>
+        <v>-2551838.641759042</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9442596.991607351</v>
+        <v>9442596.991607346</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>15.30273751513505</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="S5" t="n">
-        <v>11.91464376220976</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>15.30273751513505</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>12.73205987707308</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="7">
@@ -1063,23 +1063,23 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="X9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>233.3407993474872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.0773155190791</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>296.2011990986589</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.57530806745785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.5990647763963</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>46.99938097625616</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>145.3755315296443</v>
       </c>
       <c r="I13" t="n">
-        <v>98.45126393078941</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>92.07026635040562</v>
       </c>
       <c r="S13" t="n">
-        <v>190.9853140344841</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.8471525575619</v>
       </c>
       <c r="U13" t="n">
-        <v>73.98755858850018</v>
+        <v>286.2156450560136</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>7.239311163877545</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9361558028001</v>
       </c>
       <c r="H14" t="n">
-        <v>267.8648718131695</v>
+        <v>169.6202294666058</v>
       </c>
       <c r="I14" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.5165888164124</v>
+        <v>109.5165888164125</v>
       </c>
       <c r="T14" t="n">
         <v>203.9811381183851</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9963263708497</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I15" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0322811272495</v>
+        <v>29.47213935559935</v>
       </c>
       <c r="H16" t="n">
         <v>144.8125645972335</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.22319636297826</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.576606076751</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2121912711522</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.710030480840428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.24868492904932</v>
+        <v>62.24868492904938</v>
       </c>
       <c r="T17" t="n">
-        <v>156.713234231022</v>
+        <v>156.7132342310226</v>
       </c>
       <c r="U17" t="n">
         <v>203.7284224834866</v>
@@ -1941,7 +1941,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I18" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>101.3475691308493</v>
       </c>
       <c r="E19" t="n">
-        <v>99.16605875920607</v>
+        <v>99.16605875920608</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15314413556814</v>
+        <v>98.15314413556816</v>
       </c>
       <c r="G19" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H19" t="n">
-        <v>97.54466070987043</v>
+        <v>97.54466070987044</v>
       </c>
       <c r="I19" t="n">
-        <v>49.27917332316556</v>
+        <v>49.27917332316558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95529247561515</v>
+        <v>41.95529247561518</v>
       </c>
       <c r="S19" t="n">
         <v>142.6139258838986</v>
@@ -2132,7 +2132,7 @@
         <v>62.24868492904932</v>
       </c>
       <c r="T20" t="n">
-        <v>156.713234231022</v>
+        <v>156.7132342310219</v>
       </c>
       <c r="U20" t="n">
         <v>203.7284224834866</v>
@@ -2178,7 +2178,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I21" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>119.9789172112647</v>
       </c>
       <c r="D22" t="n">
-        <v>101.3475691308497</v>
+        <v>101.3475691308492</v>
       </c>
       <c r="E22" t="n">
-        <v>99.16605875920607</v>
+        <v>99.16605875920604</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15314413556814</v>
+        <v>98.15314413556811</v>
       </c>
       <c r="G22" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H22" t="n">
-        <v>97.54466070987043</v>
+        <v>97.5446607098704</v>
       </c>
       <c r="I22" t="n">
-        <v>49.27917332316556</v>
+        <v>49.27917332316554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>142.6139258838986</v>
       </c>
       <c r="T22" t="n">
-        <v>172.3087021893879</v>
+        <v>172.3087021893878</v>
       </c>
       <c r="U22" t="n">
         <v>238.9442873837891</v>
       </c>
       <c r="V22" t="n">
-        <v>204.8697394364649</v>
+        <v>204.8697394364662</v>
       </c>
       <c r="W22" t="n">
         <v>239.2550944492279</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.24868492904935</v>
+        <v>62.24868492904932</v>
       </c>
       <c r="T23" t="n">
-        <v>156.713234231022</v>
+        <v>156.7132342310219</v>
       </c>
       <c r="U23" t="n">
         <v>203.7284224834866</v>
@@ -2384,7 +2384,7 @@
         <v>322.4631967911059</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.9700347686905</v>
+        <v>338.9700347686908</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I24" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>132.5640762945742</v>
       </c>
       <c r="C25" t="n">
-        <v>119.9789172112648</v>
+        <v>119.9789172112647</v>
       </c>
       <c r="D25" t="n">
-        <v>101.3475691308493</v>
+        <v>101.3475691308492</v>
       </c>
       <c r="E25" t="n">
-        <v>99.16605875920609</v>
+        <v>99.16605875920604</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15314413556817</v>
+        <v>98.15314413556811</v>
       </c>
       <c r="G25" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H25" t="n">
-        <v>97.54466070987046</v>
+        <v>97.5446607098704</v>
       </c>
       <c r="I25" t="n">
-        <v>49.27917332316559</v>
+        <v>49.27917332316554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95529247561518</v>
+        <v>41.95529247561515</v>
       </c>
       <c r="S25" t="n">
         <v>142.6139258838986</v>
@@ -2539,7 +2539,7 @@
         <v>239.2550944492279</v>
       </c>
       <c r="X25" t="n">
-        <v>178.4417515016741</v>
+        <v>178.441751501674</v>
       </c>
       <c r="Y25" t="n">
         <v>171.3167494647317</v>
@@ -2606,7 +2606,7 @@
         <v>62.24868492904932</v>
       </c>
       <c r="T26" t="n">
-        <v>156.713234231022</v>
+        <v>156.7132342310219</v>
       </c>
       <c r="U26" t="n">
         <v>203.7284224834866</v>
@@ -2652,7 +2652,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I27" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>119.9789172112647</v>
       </c>
       <c r="D28" t="n">
-        <v>101.3475691308493</v>
+        <v>101.3475691308492</v>
       </c>
       <c r="E28" t="n">
-        <v>99.16605875920607</v>
+        <v>99.16605875920604</v>
       </c>
       <c r="F28" t="n">
-        <v>98.15314413556814</v>
+        <v>98.15314413556811</v>
       </c>
       <c r="G28" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H28" t="n">
-        <v>97.54466070987043</v>
+        <v>97.5446607098704</v>
       </c>
       <c r="I28" t="n">
-        <v>49.27917332316556</v>
+        <v>49.27917332316554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>41.95529247561515</v>
       </c>
       <c r="S28" t="n">
-        <v>142.6139258838986</v>
+        <v>142.6139258838991</v>
       </c>
       <c r="T28" t="n">
         <v>172.3087021893879</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.24868492904933</v>
+        <v>62.24868492904932</v>
       </c>
       <c r="T29" t="n">
-        <v>156.713234231022</v>
+        <v>156.7132342310219</v>
       </c>
       <c r="U29" t="n">
         <v>203.7284224834866</v>
@@ -2889,7 +2889,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I30" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>119.9789172112647</v>
       </c>
       <c r="D31" t="n">
-        <v>101.3475691308493</v>
+        <v>101.3475691308492</v>
       </c>
       <c r="E31" t="n">
-        <v>99.16605875920607</v>
+        <v>99.16605875920604</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15314413556814</v>
+        <v>98.15314413556811</v>
       </c>
       <c r="G31" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H31" t="n">
-        <v>97.54466070987041</v>
+        <v>97.5446607098704</v>
       </c>
       <c r="I31" t="n">
-        <v>49.27917332316557</v>
+        <v>49.27917332316554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95529247561516</v>
+        <v>41.95529247561515</v>
       </c>
       <c r="S31" t="n">
         <v>142.6139258838986</v>
@@ -3013,7 +3013,7 @@
         <v>239.2550944492279</v>
       </c>
       <c r="X31" t="n">
-        <v>178.441751501674</v>
+        <v>178.4417515016747</v>
       </c>
       <c r="Y31" t="n">
         <v>171.3167494647317</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.24868492904933</v>
+        <v>62.24868492904938</v>
       </c>
       <c r="T32" t="n">
         <v>156.713234231022</v>
@@ -3126,7 +3126,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I33" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>118.7643772398864</v>
       </c>
       <c r="H34" t="n">
-        <v>97.54466070987043</v>
+        <v>97.54466070987044</v>
       </c>
       <c r="I34" t="n">
         <v>49.27917332316558</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95529247561517</v>
+        <v>41.95529247561518</v>
       </c>
       <c r="S34" t="n">
         <v>142.6139258838986</v>
@@ -3266,7 +3266,7 @@
         <v>335.4659377761175</v>
       </c>
       <c r="C35" t="n">
-        <v>318.0049878836444</v>
+        <v>318.0049878836445</v>
       </c>
       <c r="D35" t="n">
         <v>307.4151377333199</v>
@@ -3275,10 +3275,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F35" t="n">
-        <v>359.6081418543483</v>
+        <v>359.6081418543484</v>
       </c>
       <c r="G35" t="n">
-        <v>363.668251915437</v>
+        <v>363.6682519154371</v>
       </c>
       <c r="H35" t="n">
         <v>247.4876432669537</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.24868492904934</v>
+        <v>62.24868492904938</v>
       </c>
       <c r="T35" t="n">
         <v>156.713234231022</v>
@@ -3323,13 +3323,13 @@
         <v>203.7284224834866</v>
       </c>
       <c r="V35" t="n">
-        <v>280.4843545827718</v>
+        <v>280.4843545827719</v>
       </c>
       <c r="W35" t="n">
-        <v>301.9730648300499</v>
+        <v>301.97306483005</v>
       </c>
       <c r="X35" t="n">
-        <v>322.4631967911059</v>
+        <v>322.463196791106</v>
       </c>
       <c r="Y35" t="n">
         <v>338.9700347686905</v>
@@ -3363,7 +3363,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I36" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>101.3475691308493</v>
       </c>
       <c r="E37" t="n">
-        <v>99.16605875920609</v>
+        <v>99.16605875920611</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15314413556817</v>
+        <v>98.15314413556818</v>
       </c>
       <c r="G37" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H37" t="n">
-        <v>97.54466070987044</v>
+        <v>97.54466070987047</v>
       </c>
       <c r="I37" t="n">
-        <v>49.27917332316559</v>
+        <v>49.27917332316561</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95529247561517</v>
+        <v>41.95529247561524</v>
       </c>
       <c r="S37" t="n">
         <v>142.6139258838986</v>
@@ -3478,13 +3478,13 @@
         <v>172.3087021893879</v>
       </c>
       <c r="U37" t="n">
-        <v>238.9442873837891</v>
+        <v>238.9442873837892</v>
       </c>
       <c r="V37" t="n">
-        <v>204.8697394364649</v>
+        <v>204.869739436465</v>
       </c>
       <c r="W37" t="n">
-        <v>239.2550944492279</v>
+        <v>239.255094449228</v>
       </c>
       <c r="X37" t="n">
         <v>178.4417515016741</v>
@@ -3503,7 +3503,7 @@
         <v>335.4659377761175</v>
       </c>
       <c r="C38" t="n">
-        <v>318.0049878836444</v>
+        <v>318.0049878836445</v>
       </c>
       <c r="D38" t="n">
         <v>307.4151377333199</v>
@@ -3512,10 +3512,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F38" t="n">
-        <v>359.6081418543483</v>
+        <v>359.6081418543484</v>
       </c>
       <c r="G38" t="n">
-        <v>363.668251915437</v>
+        <v>363.6682519154371</v>
       </c>
       <c r="H38" t="n">
         <v>247.4876432669537</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.24868492904934</v>
+        <v>62.2486849290494</v>
       </c>
       <c r="T38" t="n">
         <v>156.713234231022</v>
@@ -3560,13 +3560,13 @@
         <v>203.7284224834866</v>
       </c>
       <c r="V38" t="n">
-        <v>280.4843545827718</v>
+        <v>280.4843545827719</v>
       </c>
       <c r="W38" t="n">
-        <v>301.9730648300499</v>
+        <v>301.97306483005</v>
       </c>
       <c r="X38" t="n">
-        <v>322.4631967911059</v>
+        <v>322.463196791106</v>
       </c>
       <c r="Y38" t="n">
         <v>338.9700347686905</v>
@@ -3600,7 +3600,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I39" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.3475691308493</v>
       </c>
       <c r="E40" t="n">
-        <v>99.16605875920609</v>
+        <v>99.16605875920612</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15314413556817</v>
+        <v>98.1531441355682</v>
       </c>
       <c r="G40" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H40" t="n">
-        <v>97.54466070987044</v>
+        <v>97.54466070987048</v>
       </c>
       <c r="I40" t="n">
-        <v>49.27917332316559</v>
+        <v>49.27917332316562</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95529247561517</v>
+        <v>41.95529247561524</v>
       </c>
       <c r="S40" t="n">
         <v>142.6139258838986</v>
@@ -3718,10 +3718,10 @@
         <v>238.9442873837891</v>
       </c>
       <c r="V40" t="n">
-        <v>204.8697394364649</v>
+        <v>204.869739436465</v>
       </c>
       <c r="W40" t="n">
-        <v>239.2550944492279</v>
+        <v>239.255094449228</v>
       </c>
       <c r="X40" t="n">
         <v>178.4417515016741</v>
@@ -3740,7 +3740,7 @@
         <v>335.4659377761175</v>
       </c>
       <c r="C41" t="n">
-        <v>318.0049878836444</v>
+        <v>318.0049878836445</v>
       </c>
       <c r="D41" t="n">
         <v>307.4151377333199</v>
@@ -3749,10 +3749,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F41" t="n">
-        <v>359.6081418543483</v>
+        <v>359.6081418543484</v>
       </c>
       <c r="G41" t="n">
-        <v>363.668251915437</v>
+        <v>363.6682519154371</v>
       </c>
       <c r="H41" t="n">
         <v>247.4876432669537</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.24868492904935</v>
+        <v>62.24868492904938</v>
       </c>
       <c r="T41" t="n">
         <v>156.713234231022</v>
@@ -3797,13 +3797,13 @@
         <v>203.7284224834866</v>
       </c>
       <c r="V41" t="n">
-        <v>280.4843545827718</v>
+        <v>280.4843545827719</v>
       </c>
       <c r="W41" t="n">
-        <v>301.9730648300499</v>
+        <v>301.97306483005</v>
       </c>
       <c r="X41" t="n">
-        <v>322.4631967911059</v>
+        <v>322.463196791106</v>
       </c>
       <c r="Y41" t="n">
         <v>338.9700347686905</v>
@@ -3837,7 +3837,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I42" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95529247561518</v>
+        <v>41.95529247561521</v>
       </c>
       <c r="S43" t="n">
         <v>142.6139258838986</v>
@@ -3977,7 +3977,7 @@
         <v>335.4659377761175</v>
       </c>
       <c r="C44" t="n">
-        <v>318.0049878836444</v>
+        <v>318.0049878836445</v>
       </c>
       <c r="D44" t="n">
         <v>307.4151377333199</v>
@@ -3986,10 +3986,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F44" t="n">
-        <v>359.6081418543483</v>
+        <v>359.6081418543484</v>
       </c>
       <c r="G44" t="n">
-        <v>363.668251915437</v>
+        <v>363.6682519154371</v>
       </c>
       <c r="H44" t="n">
         <v>247.4876432669537</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.24868492904935</v>
+        <v>62.24868492904938</v>
       </c>
       <c r="T44" t="n">
         <v>156.713234231022</v>
@@ -4034,13 +4034,13 @@
         <v>203.7284224834866</v>
       </c>
       <c r="V44" t="n">
-        <v>280.4843545827718</v>
+        <v>280.4843545827719</v>
       </c>
       <c r="W44" t="n">
-        <v>301.9730648300499</v>
+        <v>301.97306483005</v>
       </c>
       <c r="X44" t="n">
-        <v>322.4631967911059</v>
+        <v>322.463196791106</v>
       </c>
       <c r="Y44" t="n">
         <v>338.9700347686905</v>
@@ -4074,7 +4074,7 @@
         <v>89.67144219425879</v>
       </c>
       <c r="I45" t="n">
-        <v>8.957297687216283</v>
+        <v>8.957297687216297</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95529247561518</v>
+        <v>41.95529247561521</v>
       </c>
       <c r="S46" t="n">
         <v>142.6139258838986</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F5" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
@@ -4589,28 +4589,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>35.66202407096459</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="S5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="T5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C6" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D6" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E6" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G6" t="n">
         <v>17.43566227534506</v>
@@ -4647,16 +4647,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L6" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="M6" t="n">
-        <v>46.6733494211619</v>
-      </c>
       <c r="N6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O6" t="n">
         <v>61.2109500605402</v>
@@ -4677,19 +4677,19 @@
         <v>61.2109500605402</v>
       </c>
       <c r="U6" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V6" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W6" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X6" t="n">
-        <v>48.35028351804213</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.35028351804213</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="C7" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="D7" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="G7" t="n">
         <v>16.68152962255934</v>
       </c>
       <c r="H7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K7" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
         <v>30.9115297805728</v>
@@ -4741,34 +4741,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P7" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.75363943919166</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="V7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="X7" t="n">
-        <v>30.29632881784312</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525642</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
         <v>35.69701961884617</v>
@@ -4847,7 +4847,7 @@
         <v>51.11933469231312</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
         <v>17.43566227534506</v>
@@ -4917,16 +4917,16 @@
         <v>45.75363943919166</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.224219001210804</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="C10" t="n">
-        <v>1.224219001210804</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="D10" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F10" t="n">
         <v>1.224219001210804</v>
@@ -4969,43 +4969,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
-        <v>45.75363943919166</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="T10" t="n">
-        <v>32.13884024390788</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U10" t="n">
-        <v>32.13884024390788</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V10" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W10" t="n">
-        <v>1.224219001210804</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X10" t="n">
-        <v>1.224219001210804</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.224219001210804</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1095.189773882395</v>
+        <v>1938.212916294201</v>
       </c>
       <c r="C11" t="n">
-        <v>1095.189773882395</v>
+        <v>1569.250399353789</v>
       </c>
       <c r="D11" t="n">
-        <v>859.4919967637209</v>
+        <v>1210.984700747038</v>
       </c>
       <c r="E11" t="n">
-        <v>473.7037441654766</v>
+        <v>825.1964481487942</v>
       </c>
       <c r="F11" t="n">
-        <v>62.71783937586906</v>
+        <v>825.1964481487942</v>
       </c>
       <c r="G11" t="n">
-        <v>62.71783937586906</v>
+        <v>409.9668365133608</v>
       </c>
       <c r="H11" t="n">
-        <v>62.71783937586906</v>
+        <v>110.773706110675</v>
       </c>
       <c r="I11" t="n">
-        <v>62.71783937586906</v>
+        <v>62.71783937586905</v>
       </c>
       <c r="J11" t="n">
-        <v>238.5235299308283</v>
+        <v>238.5235299308281</v>
       </c>
       <c r="K11" t="n">
-        <v>552.7492053947949</v>
+        <v>552.7492053947947</v>
       </c>
       <c r="L11" t="n">
         <v>979.4757034006848</v>
@@ -5051,13 +5051,13 @@
         <v>1485.960591269999</v>
       </c>
       <c r="N11" t="n">
-        <v>2005.254742517519</v>
+        <v>2005.25474251752</v>
       </c>
       <c r="O11" t="n">
-        <v>2482.274222844646</v>
+        <v>2482.274222844647</v>
       </c>
       <c r="P11" t="n">
-        <v>2854.89831220917</v>
+        <v>2854.898312209171</v>
       </c>
       <c r="Q11" t="n">
         <v>3086.55073841429</v>
@@ -5069,22 +5069,22 @@
         <v>3135.891968793453</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.226246797093</v>
+        <v>3135.891968793453</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.226246797093</v>
+        <v>3135.891968793453</v>
       </c>
       <c r="V11" t="n">
-        <v>2598.163359453522</v>
+        <v>3135.891968793453</v>
       </c>
       <c r="W11" t="n">
-        <v>2245.394704183408</v>
+        <v>3088.417846595214</v>
       </c>
       <c r="X11" t="n">
-        <v>1871.928945922328</v>
+        <v>2714.952088334134</v>
       </c>
       <c r="Y11" t="n">
-        <v>1481.789613946517</v>
+        <v>2324.812756358323</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>74.39226636582944</v>
       </c>
       <c r="I12" t="n">
-        <v>62.71783937586906</v>
+        <v>62.71783937586905</v>
       </c>
       <c r="J12" t="n">
         <v>148.6086573238573</v>
@@ -5136,7 +5136,7 @@
         <v>1992.202942721733</v>
       </c>
       <c r="P12" t="n">
-        <v>2409.463339557698</v>
+        <v>2286.964800236414</v>
       </c>
       <c r="Q12" t="n">
         <v>2556.584638827404</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.636729035617</v>
+        <v>841.0743684810695</v>
       </c>
       <c r="C13" t="n">
-        <v>921.7005461077096</v>
+        <v>672.1381855531622</v>
       </c>
       <c r="D13" t="n">
-        <v>771.5839066953738</v>
+        <v>672.1381855531622</v>
       </c>
       <c r="E13" t="n">
-        <v>623.6708131129807</v>
+        <v>524.2250919707691</v>
       </c>
       <c r="F13" t="n">
-        <v>476.7808656150703</v>
+        <v>377.3351444728587</v>
       </c>
       <c r="G13" t="n">
-        <v>309.0075317601456</v>
+        <v>209.5618106179341</v>
       </c>
       <c r="H13" t="n">
-        <v>162.1635605180806</v>
+        <v>62.71783937586905</v>
       </c>
       <c r="I13" t="n">
-        <v>62.71783937586906</v>
+        <v>62.71783937586905</v>
       </c>
       <c r="J13" t="n">
         <v>102.9555023542998</v>
@@ -5206,7 +5206,7 @@
         <v>605.2025351216839</v>
       </c>
       <c r="M13" t="n">
-        <v>938.5287296802876</v>
+        <v>938.5287296802881</v>
       </c>
       <c r="N13" t="n">
         <v>1269.363788774819</v>
@@ -5215,7 +5215,7 @@
         <v>1558.927217540119</v>
       </c>
       <c r="P13" t="n">
-        <v>1783.17807224805</v>
+        <v>1783.178072248051</v>
       </c>
       <c r="Q13" t="n">
         <v>1855.002660058737</v>
@@ -5224,25 +5224,25 @@
         <v>1762.002391017923</v>
       </c>
       <c r="S13" t="n">
-        <v>1569.087932397232</v>
+        <v>1762.002391017923</v>
       </c>
       <c r="T13" t="n">
-        <v>1347.020101531008</v>
+        <v>1539.934560151699</v>
       </c>
       <c r="U13" t="n">
-        <v>1272.285193865856</v>
+        <v>1250.827847973908</v>
       </c>
       <c r="V13" t="n">
-        <v>1272.285193865856</v>
+        <v>1250.827847973908</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.285193865856</v>
+        <v>1250.827847973908</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.285193865856</v>
+        <v>1243.515412454839</v>
       </c>
       <c r="Y13" t="n">
-        <v>1272.285193865856</v>
+        <v>1022.722833311309</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.292685645557</v>
+        <v>2234.05567317428</v>
       </c>
       <c r="C14" t="n">
-        <v>1964.330168705145</v>
+        <v>1865.093156233869</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.064470098394</v>
+        <v>1506.827457627118</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.27621750015</v>
+        <v>1121.039205028874</v>
       </c>
       <c r="F14" t="n">
-        <v>809.2903127105424</v>
+        <v>710.0533002392663</v>
       </c>
       <c r="G14" t="n">
-        <v>394.2032866471079</v>
+        <v>294.9662741758318</v>
       </c>
       <c r="H14" t="n">
         <v>123.6327090580479</v>
       </c>
       <c r="I14" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J14" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K14" t="n">
-        <v>600.7426703385225</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L14" t="n">
         <v>1049.522469651841</v>
       </c>
       <c r="M14" t="n">
-        <v>2025.564302599821</v>
+        <v>1992.734306904758</v>
       </c>
       <c r="N14" t="n">
-        <v>2855.544785506247</v>
+        <v>2536.964064416479</v>
       </c>
       <c r="O14" t="n">
-        <v>3356.110251738112</v>
+        <v>3037.529530648344</v>
       </c>
       <c r="P14" t="n">
         <v>3748.830295316694</v>
       </c>
       <c r="Q14" t="n">
-        <v>3995.573946220022</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R14" t="n">
         <v>4053.693629386617</v>
@@ -5309,19 +5309,19 @@
         <v>3737.029258745408</v>
       </c>
       <c r="U14" t="n">
-        <v>3483.49761594657</v>
+        <v>3737.029258745408</v>
       </c>
       <c r="V14" t="n">
-        <v>3483.49761594657</v>
+        <v>3737.029258745408</v>
       </c>
       <c r="W14" t="n">
-        <v>3483.49761594657</v>
+        <v>3384.260603475293</v>
       </c>
       <c r="X14" t="n">
-        <v>3110.03185768549</v>
+        <v>3010.794845214214</v>
       </c>
       <c r="Y14" t="n">
-        <v>2719.892525709678</v>
+        <v>2620.655513238402</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>90.12164802936496</v>
       </c>
       <c r="I15" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J15" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K15" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L15" t="n">
-        <v>776.0974404398714</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M15" t="n">
         <v>1221.437051126042</v>
       </c>
       <c r="N15" t="n">
-        <v>1692.972121073454</v>
+        <v>1692.972121073453</v>
       </c>
       <c r="O15" t="n">
         <v>2102.114793023233</v>
       </c>
       <c r="P15" t="n">
-        <v>2413.105496373884</v>
+        <v>2411.154791674778</v>
       </c>
       <c r="Q15" t="n">
         <v>2569.771354871099</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.5467813740164</v>
+        <v>504.7579677206353</v>
       </c>
       <c r="C16" t="n">
-        <v>790.6105984461095</v>
+        <v>504.7579677206353</v>
       </c>
       <c r="D16" t="n">
-        <v>640.4939590337738</v>
+        <v>354.6413283082995</v>
       </c>
       <c r="E16" t="n">
-        <v>492.5808654513805</v>
+        <v>354.6413283082995</v>
       </c>
       <c r="F16" t="n">
-        <v>492.5808654513805</v>
+        <v>354.6413283082995</v>
       </c>
       <c r="G16" t="n">
-        <v>324.8714905753709</v>
+        <v>324.871490575371</v>
       </c>
       <c r="H16" t="n">
         <v>178.5961728003876</v>
       </c>
       <c r="I16" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J16" t="n">
         <v>125.7434495692565</v>
@@ -5440,46 +5440,46 @@
         <v>328.9861232153224</v>
       </c>
       <c r="L16" t="n">
-        <v>644.5932060818027</v>
+        <v>644.5932060818026</v>
       </c>
       <c r="M16" t="n">
-        <v>987.7457466806974</v>
+        <v>987.7457466806972</v>
       </c>
       <c r="N16" t="n">
         <v>1328.173503269644</v>
       </c>
       <c r="O16" t="n">
-        <v>1626.597340794119</v>
+        <v>1626.597340794118</v>
       </c>
       <c r="P16" t="n">
-        <v>1858.429805878436</v>
+        <v>1858.429805878435</v>
       </c>
       <c r="Q16" t="n">
-        <v>1935.503507728276</v>
+        <v>1935.503507728275</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.37906695759</v>
+        <v>1935.503507728275</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.37906695759</v>
+        <v>1935.503507728275</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.37906695759</v>
+        <v>1713.708956135597</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.37906695759</v>
+        <v>1424.605732629383</v>
       </c>
       <c r="V16" t="n">
-        <v>1590.694578751703</v>
+        <v>1424.605732629383</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.977376245803</v>
+        <v>1135.188562592422</v>
       </c>
       <c r="X16" t="n">
-        <v>1361.987825347786</v>
+        <v>907.199011694405</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.195246204256</v>
+        <v>686.406432550875</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D17" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F17" t="n">
-        <v>698.4030596406531</v>
+        <v>698.4030596406523</v>
       </c>
       <c r="G17" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H17" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I17" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1461590878824</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K17" t="n">
-        <v>1089.052277804329</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L17" t="n">
-        <v>1537.832077117647</v>
+        <v>1049.522469651841</v>
       </c>
       <c r="M17" t="n">
-        <v>2068.855511907723</v>
+        <v>2025.564302599821</v>
       </c>
       <c r="N17" t="n">
-        <v>2613.085269419444</v>
+        <v>2855.544785506247</v>
       </c>
       <c r="O17" t="n">
-        <v>3113.650735651309</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P17" t="n">
-        <v>3506.370779229891</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q17" t="n">
-        <v>3963.306270886524</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R17" t="n">
         <v>4053.693629386617</v>
@@ -5543,19 +5543,19 @@
         <v>3990.816169862325</v>
       </c>
       <c r="T17" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U17" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V17" t="n">
         <v>3343.416158450931</v>
       </c>
       <c r="W17" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X17" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y17" t="n">
         <v>2370.278485329874</v>
@@ -5589,28 +5589,28 @@
         <v>90.12164802936496</v>
       </c>
       <c r="I18" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J18" t="n">
-        <v>175.9796939676388</v>
+        <v>174.0289892685331</v>
       </c>
       <c r="K18" t="n">
-        <v>413.0096187732022</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L18" t="n">
-        <v>778.0481451389771</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M18" t="n">
         <v>1223.387755825148</v>
       </c>
       <c r="N18" t="n">
-        <v>1694.922825772559</v>
+        <v>1694.92282577256</v>
       </c>
       <c r="O18" t="n">
         <v>2104.065497722339</v>
       </c>
       <c r="P18" t="n">
-        <v>2413.105496373884</v>
+        <v>2413.105496373885</v>
       </c>
       <c r="Q18" t="n">
         <v>2569.771354871099</v>
@@ -5656,49 +5656,49 @@
         <v>548.6571192217693</v>
       </c>
       <c r="E19" t="n">
-        <v>448.4893831013591</v>
+        <v>448.4893831013592</v>
       </c>
       <c r="F19" t="n">
-        <v>349.3447930654317</v>
+        <v>349.3447930654318</v>
       </c>
       <c r="G19" t="n">
-        <v>229.380775651405</v>
+        <v>229.3807756514051</v>
       </c>
       <c r="H19" t="n">
         <v>130.8508153384046</v>
       </c>
       <c r="I19" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J19" t="n">
-        <v>172.538674417746</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K19" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L19" t="n">
-        <v>784.9788806272711</v>
+        <v>784.9788806272709</v>
       </c>
       <c r="M19" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N19" t="n">
-        <v>1562.149627512092</v>
+        <v>1562.149627512091</v>
       </c>
       <c r="O19" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P19" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q19" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R19" t="n">
         <v>2267.486223207489</v>
       </c>
       <c r="S19" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T19" t="n">
         <v>1949.382558486998</v>
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C20" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D20" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E20" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F20" t="n">
-        <v>698.4030596406533</v>
+        <v>698.4030596406527</v>
       </c>
       <c r="G20" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H20" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I20" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J20" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K20" t="n">
-        <v>600.7426703385225</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.081354293241</v>
+        <v>1347.318138036586</v>
       </c>
       <c r="M20" t="n">
-        <v>2101.123187241221</v>
+        <v>1878.341572826662</v>
       </c>
       <c r="N20" t="n">
-        <v>2645.352944752942</v>
+        <v>2855.544785506247</v>
       </c>
       <c r="O20" t="n">
-        <v>3145.918410984807</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P20" t="n">
-        <v>3538.638454563389</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q20" t="n">
-        <v>3995.573946220022</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R20" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S20" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T20" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U20" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V20" t="n">
-        <v>3343.416158450932</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W20" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X20" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y20" t="n">
         <v>2370.278485329874</v>
@@ -5826,28 +5826,28 @@
         <v>90.12164802936496</v>
       </c>
       <c r="I21" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J21" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K21" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L21" t="n">
-        <v>776.0974404398714</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M21" t="n">
         <v>1221.437051126042</v>
       </c>
       <c r="N21" t="n">
-        <v>1692.972121073454</v>
+        <v>1692.972121073453</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P21" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373885</v>
       </c>
       <c r="Q21" t="n">
         <v>2569.771354871099</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.2192266380466</v>
+        <v>772.2192266380459</v>
       </c>
       <c r="C22" t="n">
-        <v>651.0284011721226</v>
+        <v>651.028401172122</v>
       </c>
       <c r="D22" t="n">
-        <v>548.6571192217693</v>
+        <v>548.6571192217692</v>
       </c>
       <c r="E22" t="n">
         <v>448.4893831013591</v>
       </c>
       <c r="F22" t="n">
-        <v>349.3447930654317</v>
+        <v>349.3447930654316</v>
       </c>
       <c r="G22" t="n">
         <v>229.380775651405</v>
@@ -5905,7 +5905,7 @@
         <v>130.8508153384046</v>
       </c>
       <c r="I22" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J22" t="n">
         <v>172.538674417746</v>
@@ -5914,13 +5914,13 @@
         <v>422.5765729123013</v>
       </c>
       <c r="L22" t="n">
-        <v>784.9788806272711</v>
+        <v>784.978880627271</v>
       </c>
       <c r="M22" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N22" t="n">
-        <v>1562.149627512091</v>
+        <v>1562.149627512092</v>
       </c>
       <c r="O22" t="n">
         <v>1907.368689885056</v>
@@ -5935,25 +5935,25 @@
         <v>2267.486223207489</v>
       </c>
       <c r="S22" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617694</v>
       </c>
       <c r="T22" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486999</v>
       </c>
       <c r="U22" t="n">
-        <v>1708.024692442766</v>
+        <v>1708.024692442767</v>
       </c>
       <c r="V22" t="n">
         <v>1501.085561698862</v>
       </c>
       <c r="W22" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X22" t="n">
-        <v>1079.169555687851</v>
+        <v>1079.16955568785</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.1223340063034</v>
+        <v>906.1223340063028</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C23" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F23" t="n">
-        <v>698.4030596406528</v>
+        <v>698.4030596406523</v>
       </c>
       <c r="G23" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H23" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I23" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J23" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K23" t="n">
-        <v>600.7426703385225</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L23" t="n">
         <v>1049.522469651841</v>
       </c>
       <c r="M23" t="n">
-        <v>2025.564302599821</v>
+        <v>1878.341572826662</v>
       </c>
       <c r="N23" t="n">
-        <v>2855.544785506248</v>
+        <v>2855.544785506247</v>
       </c>
       <c r="O23" t="n">
-        <v>3356.110251738113</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P23" t="n">
         <v>3748.830295316694</v>
       </c>
       <c r="Q23" t="n">
-        <v>3995.573946220022</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R23" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S23" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T23" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U23" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V23" t="n">
         <v>3343.416158450931</v>
       </c>
       <c r="W23" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X23" t="n">
         <v>2712.672459843703</v>
@@ -6063,28 +6063,28 @@
         <v>90.12164802936496</v>
       </c>
       <c r="I24" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J24" t="n">
-        <v>174.0289892685331</v>
+        <v>175.9796939676396</v>
       </c>
       <c r="K24" t="n">
-        <v>411.0589140740965</v>
+        <v>413.0096187732029</v>
       </c>
       <c r="L24" t="n">
-        <v>776.0974404398714</v>
+        <v>778.0481451389777</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.437051126042</v>
+        <v>1223.387755825148</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.92282577256</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P24" t="n">
-        <v>2413.105496373884</v>
+        <v>2413.105496373885</v>
       </c>
       <c r="Q24" t="n">
         <v>2569.771354871099</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.2192266380465</v>
+        <v>772.2192266380458</v>
       </c>
       <c r="C25" t="n">
-        <v>651.0284011721225</v>
+        <v>651.0284011721219</v>
       </c>
       <c r="D25" t="n">
-        <v>548.6571192217697</v>
+        <v>548.6571192217691</v>
       </c>
       <c r="E25" t="n">
-        <v>448.4893831013595</v>
+        <v>448.489383101359</v>
       </c>
       <c r="F25" t="n">
-        <v>349.3447930654321</v>
+        <v>349.3447930654316</v>
       </c>
       <c r="G25" t="n">
-        <v>229.3807756514054</v>
+        <v>229.380775651405</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8508153384047</v>
+        <v>130.8508153384046</v>
       </c>
       <c r="I25" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J25" t="n">
         <v>172.538674417746</v>
       </c>
       <c r="K25" t="n">
-        <v>422.5765729123011</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L25" t="n">
         <v>784.9788806272709</v>
@@ -6166,7 +6166,7 @@
         <v>2185.996379817862</v>
       </c>
       <c r="Q25" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R25" t="n">
         <v>2267.486223207489</v>
@@ -6175,22 +6175,22 @@
         <v>2123.431752617692</v>
       </c>
       <c r="T25" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486997</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.024692442767</v>
+        <v>1708.024692442766</v>
       </c>
       <c r="V25" t="n">
-        <v>1501.085561698863</v>
+        <v>1501.085561698862</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X25" t="n">
-        <v>1079.169555687851</v>
+        <v>1079.16955568785</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.1223340063033</v>
+        <v>906.1223340063026</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C26" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F26" t="n">
-        <v>698.4030596406528</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G26" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H26" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I26" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J26" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K26" t="n">
-        <v>802.7392320480585</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L26" t="n">
-        <v>1251.519031361377</v>
+        <v>1049.522469651841</v>
       </c>
       <c r="M26" t="n">
-        <v>1782.542466151453</v>
+        <v>2025.564302599821</v>
       </c>
       <c r="N26" t="n">
-        <v>2326.772223663173</v>
+        <v>2855.544785506246</v>
       </c>
       <c r="O26" t="n">
-        <v>2827.337689895039</v>
+        <v>3356.110251738111</v>
       </c>
       <c r="P26" t="n">
-        <v>3538.638454563388</v>
+        <v>3748.830295316693</v>
       </c>
       <c r="Q26" t="n">
-        <v>3995.573946220022</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R26" t="n">
         <v>4053.693629386617</v>
       </c>
       <c r="S26" t="n">
-        <v>3990.816169862325</v>
+        <v>3990.816169862324</v>
       </c>
       <c r="T26" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U26" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V26" t="n">
-        <v>3343.416158450931</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W26" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X26" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y26" t="n">
         <v>2370.278485329874</v>
@@ -6300,28 +6300,28 @@
         <v>90.12164802936496</v>
       </c>
       <c r="I27" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J27" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K27" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L27" t="n">
-        <v>778.0481451389771</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.387755825148</v>
+        <v>1221.437051126042</v>
       </c>
       <c r="N27" t="n">
-        <v>1694.922825772559</v>
+        <v>1692.972121073453</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.065497722339</v>
+        <v>2102.114793023233</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.105496373884</v>
+        <v>2411.154791674778</v>
       </c>
       <c r="Q27" t="n">
         <v>2569.771354871099</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.2192266380459</v>
+        <v>772.2192266380458</v>
       </c>
       <c r="C28" t="n">
-        <v>651.028401172122</v>
+        <v>651.0284011721219</v>
       </c>
       <c r="D28" t="n">
-        <v>548.6571192217692</v>
+        <v>548.6571192217691</v>
       </c>
       <c r="E28" t="n">
-        <v>448.4893831013591</v>
+        <v>448.489383101359</v>
       </c>
       <c r="F28" t="n">
         <v>349.3447930654316</v>
@@ -6379,19 +6379,19 @@
         <v>130.8508153384046</v>
       </c>
       <c r="I28" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J28" t="n">
         <v>172.5386744177459</v>
       </c>
       <c r="K28" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L28" t="n">
-        <v>784.9788806272711</v>
+        <v>784.9788806272709</v>
       </c>
       <c r="M28" t="n">
-        <v>1174.926646074656</v>
+        <v>1174.926646074655</v>
       </c>
       <c r="N28" t="n">
         <v>1562.149627512091</v>
@@ -6409,25 +6409,25 @@
         <v>2267.486223207489</v>
       </c>
       <c r="S28" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T28" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486997</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.024692442767</v>
+        <v>1708.024692442766</v>
       </c>
       <c r="V28" t="n">
-        <v>1501.085561698863</v>
+        <v>1501.085561698862</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X28" t="n">
         <v>1079.16955568785</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.1223340063027</v>
+        <v>906.1223340063026</v>
       </c>
     </row>
     <row r="29">
@@ -6449,55 +6449,55 @@
         <v>1061.643606968277</v>
       </c>
       <c r="F29" t="n">
-        <v>698.4030596406521</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G29" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H29" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I29" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J29" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K29" t="n">
-        <v>600.7426703385225</v>
+        <v>921.6466287839754</v>
       </c>
       <c r="L29" t="n">
-        <v>1049.522469651841</v>
+        <v>1461.710872114683</v>
       </c>
       <c r="M29" t="n">
-        <v>2025.564302599821</v>
+        <v>1992.734306904758</v>
       </c>
       <c r="N29" t="n">
-        <v>2569.794060111542</v>
+        <v>2536.964064416479</v>
       </c>
       <c r="O29" t="n">
-        <v>3356.110251738113</v>
+        <v>3037.529530648344</v>
       </c>
       <c r="P29" t="n">
-        <v>3748.830295316694</v>
+        <v>3748.830295316693</v>
       </c>
       <c r="Q29" t="n">
-        <v>3995.573946220022</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R29" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S29" t="n">
-        <v>3990.816169862325</v>
+        <v>3990.816169862324</v>
       </c>
       <c r="T29" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U29" t="n">
         <v>3626.733688332518</v>
       </c>
       <c r="V29" t="n">
-        <v>3343.416158450931</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W29" t="n">
         <v>3038.392860642799</v>
@@ -6537,28 +6537,28 @@
         <v>90.12164802936496</v>
       </c>
       <c r="I30" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J30" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K30" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L30" t="n">
-        <v>778.0481451389771</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M30" t="n">
-        <v>1223.387755825148</v>
+        <v>1221.437051126042</v>
       </c>
       <c r="N30" t="n">
-        <v>1694.922825772559</v>
+        <v>1694.92282577256</v>
       </c>
       <c r="O30" t="n">
         <v>2104.065497722339</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.105496373884</v>
+        <v>2413.105496373885</v>
       </c>
       <c r="Q30" t="n">
         <v>2569.771354871099</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.2192266380462</v>
+        <v>772.2192266380458</v>
       </c>
       <c r="C31" t="n">
-        <v>651.0284011721221</v>
+        <v>651.0284011721219</v>
       </c>
       <c r="D31" t="n">
-        <v>548.6571192217693</v>
+        <v>548.6571192217691</v>
       </c>
       <c r="E31" t="n">
-        <v>448.4893831013591</v>
+        <v>448.489383101359</v>
       </c>
       <c r="F31" t="n">
-        <v>349.3447930654317</v>
+        <v>349.3447930654316</v>
       </c>
       <c r="G31" t="n">
-        <v>229.3807756514051</v>
+        <v>229.380775651405</v>
       </c>
       <c r="H31" t="n">
         <v>130.8508153384046</v>
       </c>
       <c r="I31" t="n">
-        <v>81.07387258773235</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J31" t="n">
-        <v>172.5386744177463</v>
+        <v>172.5386744177461</v>
       </c>
       <c r="K31" t="n">
-        <v>422.576572912302</v>
+        <v>422.5765729123013</v>
       </c>
       <c r="L31" t="n">
-        <v>784.9788806272718</v>
+        <v>784.9788806272711</v>
       </c>
       <c r="M31" t="n">
-        <v>1174.926646074656</v>
+        <v>1174.926646074655</v>
       </c>
       <c r="N31" t="n">
-        <v>1562.149627512092</v>
+        <v>1562.149627512091</v>
       </c>
       <c r="O31" t="n">
         <v>1907.368689885056</v>
       </c>
       <c r="P31" t="n">
-        <v>2185.996379817863</v>
+        <v>2185.996379817862</v>
       </c>
       <c r="Q31" t="n">
-        <v>2309.865306516193</v>
+        <v>2309.865306516192</v>
       </c>
       <c r="R31" t="n">
-        <v>2267.48622320749</v>
+        <v>2267.486223207489</v>
       </c>
       <c r="S31" t="n">
-        <v>2123.431752617694</v>
+        <v>2123.431752617693</v>
       </c>
       <c r="T31" t="n">
         <v>1949.382558486998</v>
@@ -6664,7 +6664,7 @@
         <v>1079.16955568785</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.1223340063029</v>
+        <v>906.1223340063026</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C32" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F32" t="n">
-        <v>698.4030596406532</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G32" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H32" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I32" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J32" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K32" t="n">
-        <v>921.6466287839756</v>
+        <v>921.6466287839754</v>
       </c>
       <c r="L32" t="n">
-        <v>1370.426428097295</v>
+        <v>1370.426428097294</v>
       </c>
       <c r="M32" t="n">
-        <v>1901.44986288737</v>
+        <v>1901.449862887369</v>
       </c>
       <c r="N32" t="n">
-        <v>2471.904808742227</v>
+        <v>2445.67962039909</v>
       </c>
       <c r="O32" t="n">
-        <v>2972.470274974093</v>
+        <v>3323.237266081073</v>
       </c>
       <c r="P32" t="n">
-        <v>3683.771039642442</v>
+        <v>3715.957309659655</v>
       </c>
       <c r="Q32" t="n">
-        <v>3930.51469054577</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R32" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S32" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862324</v>
       </c>
       <c r="T32" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U32" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V32" t="n">
         <v>3343.416158450931</v>
       </c>
       <c r="W32" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X32" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y32" t="n">
         <v>2370.278485329874</v>
@@ -6771,34 +6771,34 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H33" t="n">
-        <v>90.12164802936498</v>
+        <v>90.12164802936496</v>
       </c>
       <c r="I33" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J33" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K33" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L33" t="n">
-        <v>776.0974404398714</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M33" t="n">
         <v>1221.437051126042</v>
       </c>
       <c r="N33" t="n">
-        <v>1692.972121073454</v>
+        <v>1692.972121073453</v>
       </c>
       <c r="O33" t="n">
-        <v>2104.065497722339</v>
+        <v>2102.114793023233</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.105496373884</v>
+        <v>2411.154791674778</v>
       </c>
       <c r="Q33" t="n">
-        <v>2569.771354871099</v>
+        <v>2567.820650171993</v>
       </c>
       <c r="R33" t="n">
         <v>2569.771354871099</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.2192266380458</v>
+        <v>772.2192266380459</v>
       </c>
       <c r="C34" t="n">
-        <v>651.0284011721218</v>
+        <v>651.0284011721219</v>
       </c>
       <c r="D34" t="n">
-        <v>548.657119221769</v>
+        <v>548.6571192217691</v>
       </c>
       <c r="E34" t="n">
-        <v>448.4893831013588</v>
+        <v>448.4893831013589</v>
       </c>
       <c r="F34" t="n">
-        <v>349.3447930654314</v>
+        <v>349.3447930654315</v>
       </c>
       <c r="G34" t="n">
-        <v>229.3807756514047</v>
+        <v>229.3807756514048</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8508153384046</v>
+        <v>130.8508153384043</v>
       </c>
       <c r="I34" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J34" t="n">
-        <v>172.5386744177463</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K34" t="n">
-        <v>422.5765729123016</v>
+        <v>422.5765729123011</v>
       </c>
       <c r="L34" t="n">
-        <v>784.9788806272713</v>
+        <v>784.9788806272708</v>
       </c>
       <c r="M34" t="n">
         <v>1174.926646074655</v>
@@ -6871,19 +6871,19 @@
         <v>1562.149627512091</v>
       </c>
       <c r="O34" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P34" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q34" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R34" t="n">
-        <v>2267.486223207489</v>
+        <v>2267.486223207488</v>
       </c>
       <c r="S34" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T34" t="n">
         <v>1949.382558486998</v>
@@ -6901,7 +6901,7 @@
         <v>1079.16955568785</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.1223340063026</v>
+        <v>906.1223340063027</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C35" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F35" t="n">
-        <v>698.4030596406533</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G35" t="n">
         <v>331.0613910392008</v>
       </c>
       <c r="H35" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="I35" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1461590878824</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K35" t="n">
-        <v>821.4341400589758</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L35" t="n">
-        <v>1270.213939372295</v>
+        <v>1403.299413754333</v>
       </c>
       <c r="M35" t="n">
-        <v>2246.255772320274</v>
+        <v>1934.322848544409</v>
       </c>
       <c r="N35" t="n">
-        <v>2790.485529831995</v>
+        <v>2478.552606056129</v>
       </c>
       <c r="O35" t="n">
-        <v>3291.050996063861</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P35" t="n">
-        <v>3683.771039642442</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q35" t="n">
-        <v>3930.51469054577</v>
+        <v>3995.573946220022</v>
       </c>
       <c r="R35" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S35" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T35" t="n">
-        <v>3832.519973669375</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U35" t="n">
         <v>3626.733688332519</v>
@@ -6974,10 +6974,10 @@
         <v>3343.416158450931</v>
       </c>
       <c r="W35" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X35" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y35" t="n">
         <v>2370.278485329874</v>
@@ -7011,31 +7011,31 @@
         <v>90.12164802936498</v>
       </c>
       <c r="I36" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J36" t="n">
-        <v>175.9796939676388</v>
+        <v>174.0289892685331</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0096187732022</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L36" t="n">
-        <v>778.0481451389771</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.387755825148</v>
+        <v>1221.437051126042</v>
       </c>
       <c r="N36" t="n">
-        <v>1694.922825772559</v>
+        <v>1692.972121073453</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.065497722339</v>
+        <v>2102.114793023233</v>
       </c>
       <c r="P36" t="n">
-        <v>2413.105496373884</v>
+        <v>2411.154791674778</v>
       </c>
       <c r="Q36" t="n">
-        <v>2569.771354871099</v>
+        <v>2567.820650171993</v>
       </c>
       <c r="R36" t="n">
         <v>2569.771354871099</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.2192266380464</v>
+        <v>772.2192266380453</v>
       </c>
       <c r="C37" t="n">
-        <v>651.0284011721224</v>
+        <v>651.0284011721212</v>
       </c>
       <c r="D37" t="n">
-        <v>548.6571192217696</v>
+        <v>548.6571192217684</v>
       </c>
       <c r="E37" t="n">
-        <v>448.4893831013594</v>
+        <v>448.4893831013582</v>
       </c>
       <c r="F37" t="n">
-        <v>349.344793065432</v>
+        <v>349.3447930654307</v>
       </c>
       <c r="G37" t="n">
-        <v>229.3807756514053</v>
+        <v>229.3807756514041</v>
       </c>
       <c r="H37" t="n">
         <v>130.8508153384047</v>
       </c>
       <c r="I37" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J37" t="n">
-        <v>172.538674417746</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K37" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123011</v>
       </c>
       <c r="L37" t="n">
-        <v>784.9788806272711</v>
+        <v>784.9788806272708</v>
       </c>
       <c r="M37" t="n">
         <v>1174.926646074655</v>
@@ -7108,22 +7108,22 @@
         <v>1562.149627512091</v>
       </c>
       <c r="O37" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P37" t="n">
-        <v>2185.996379817862</v>
+        <v>2185.996379817861</v>
       </c>
       <c r="Q37" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R37" t="n">
-        <v>2267.486223207489</v>
+        <v>2267.486223207488</v>
       </c>
       <c r="S37" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T37" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486997</v>
       </c>
       <c r="U37" t="n">
         <v>1708.024692442766</v>
@@ -7132,13 +7132,13 @@
         <v>1501.085561698862</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X37" t="n">
-        <v>1079.16955568785</v>
+        <v>1079.169555687849</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.1223340063032</v>
+        <v>906.122334006302</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727734</v>
       </c>
       <c r="C38" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F38" t="n">
-        <v>698.4030596406533</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G38" t="n">
         <v>331.0613910392008</v>
@@ -7172,22 +7172,22 @@
         <v>81.07387258773235</v>
       </c>
       <c r="J38" t="n">
-        <v>268.7405100675294</v>
+        <v>301.6134957245686</v>
       </c>
       <c r="K38" t="n">
-        <v>635.9388933512469</v>
+        <v>954.5196144410147</v>
       </c>
       <c r="L38" t="n">
-        <v>1084.718692664566</v>
+        <v>1403.299413754333</v>
       </c>
       <c r="M38" t="n">
-        <v>1615.742127454641</v>
+        <v>1934.322848544409</v>
       </c>
       <c r="N38" t="n">
-        <v>2159.971884966362</v>
+        <v>2478.552606056129</v>
       </c>
       <c r="O38" t="n">
-        <v>3037.529530648345</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P38" t="n">
         <v>3748.830295316694</v>
@@ -7196,28 +7196,28 @@
         <v>3995.573946220022</v>
       </c>
       <c r="R38" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S38" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T38" t="n">
-        <v>3832.519973669375</v>
+        <v>3832.519973669374</v>
       </c>
       <c r="U38" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V38" t="n">
-        <v>3343.416158450932</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W38" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X38" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.278485329874</v>
+        <v>2370.278485329873</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7245,7 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H39" t="n">
-        <v>90.12164802936496</v>
+        <v>90.12164802936498</v>
       </c>
       <c r="I39" t="n">
         <v>81.07387258773235</v>
@@ -7254,25 +7254,25 @@
         <v>174.0289892685331</v>
       </c>
       <c r="K39" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L39" t="n">
-        <v>776.0974404398714</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M39" t="n">
         <v>1221.437051126042</v>
       </c>
       <c r="N39" t="n">
-        <v>1692.972121073454</v>
+        <v>1692.972121073453</v>
       </c>
       <c r="O39" t="n">
         <v>2102.114793023233</v>
       </c>
       <c r="P39" t="n">
-        <v>2413.105496373884</v>
+        <v>2411.154791674778</v>
       </c>
       <c r="Q39" t="n">
-        <v>2569.771354871099</v>
+        <v>2567.820650171993</v>
       </c>
       <c r="R39" t="n">
         <v>2569.771354871099</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.2192266380463</v>
+        <v>772.2192266380465</v>
       </c>
       <c r="C40" t="n">
-        <v>651.0284011721222</v>
+        <v>651.0284011721225</v>
       </c>
       <c r="D40" t="n">
-        <v>548.6571192217694</v>
+        <v>548.6571192217697</v>
       </c>
       <c r="E40" t="n">
-        <v>448.4893831013593</v>
+        <v>448.4893831013594</v>
       </c>
       <c r="F40" t="n">
-        <v>349.3447930654318</v>
+        <v>349.3447930654319</v>
       </c>
       <c r="G40" t="n">
-        <v>229.3807756514051</v>
+        <v>229.3807756514052</v>
       </c>
       <c r="H40" t="n">
         <v>130.8508153384047</v>
@@ -7330,52 +7330,52 @@
         <v>81.07387258773235</v>
       </c>
       <c r="J40" t="n">
-        <v>172.538674417746</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K40" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L40" t="n">
-        <v>784.9788806272707</v>
+        <v>784.9788806272709</v>
       </c>
       <c r="M40" t="n">
-        <v>1174.926646074654</v>
+        <v>1174.926646074655</v>
       </c>
       <c r="N40" t="n">
-        <v>1562.149627512091</v>
+        <v>1562.149627512092</v>
       </c>
       <c r="O40" t="n">
-        <v>1907.368689885055</v>
+        <v>1907.368689885056</v>
       </c>
       <c r="P40" t="n">
-        <v>2185.996379817861</v>
+        <v>2185.996379817863</v>
       </c>
       <c r="Q40" t="n">
-        <v>2309.865306516191</v>
+        <v>2309.865306516192</v>
       </c>
       <c r="R40" t="n">
-        <v>2267.486223207488</v>
+        <v>2267.48622320749</v>
       </c>
       <c r="S40" t="n">
-        <v>2123.431752617692</v>
+        <v>2123.431752617693</v>
       </c>
       <c r="T40" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486999</v>
       </c>
       <c r="U40" t="n">
-        <v>1708.024692442766</v>
+        <v>1708.024692442767</v>
       </c>
       <c r="V40" t="n">
-        <v>1501.085561698862</v>
+        <v>1501.085561698863</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.413749123884</v>
+        <v>1259.413749123885</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.16955568785</v>
+        <v>1079.169555687851</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.122334006303</v>
+        <v>906.1223340063034</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2031.424002727734</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C41" t="n">
-        <v>1710.206843249305</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.686502104538</v>
+        <v>1399.686502104539</v>
       </c>
       <c r="E41" t="n">
         <v>1061.643606968277</v>
       </c>
       <c r="F41" t="n">
-        <v>698.4030596406519</v>
+        <v>698.4030596406528</v>
       </c>
       <c r="G41" t="n">
         <v>331.0613910392008</v>
       </c>
       <c r="H41" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="I41" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1461590878824</v>
+        <v>436.1461590878823</v>
       </c>
       <c r="K41" t="n">
-        <v>768.1483193588756</v>
+        <v>768.1483193588754</v>
       </c>
       <c r="L41" t="n">
         <v>1216.928118672194</v>
       </c>
       <c r="M41" t="n">
-        <v>1747.95155346227</v>
+        <v>1747.951553462269</v>
       </c>
       <c r="N41" t="n">
-        <v>2292.181310973991</v>
+        <v>2292.18131097399</v>
       </c>
       <c r="O41" t="n">
-        <v>2792.746777205856</v>
+        <v>2792.746777205855</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.579198889135</v>
+        <v>3504.047541874204</v>
       </c>
       <c r="Q41" t="n">
-        <v>3930.514690545769</v>
+        <v>3960.983033530837</v>
       </c>
       <c r="R41" t="n">
         <v>4053.693629386617</v>
@@ -7439,22 +7439,22 @@
         <v>3990.816169862325</v>
       </c>
       <c r="T41" t="n">
-        <v>3832.519973669373</v>
+        <v>3832.519973669374</v>
       </c>
       <c r="U41" t="n">
-        <v>3626.733688332517</v>
+        <v>3626.733688332519</v>
       </c>
       <c r="V41" t="n">
-        <v>3343.41615845093</v>
+        <v>3343.416158450931</v>
       </c>
       <c r="W41" t="n">
-        <v>3038.392860642798</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X41" t="n">
-        <v>2712.672459843701</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y41" t="n">
-        <v>2370.278485329873</v>
+        <v>2370.278485329874</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H42" t="n">
-        <v>90.12164802936495</v>
+        <v>90.12164802936498</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J42" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K42" t="n">
-        <v>411.0589140740965</v>
+        <v>411.0589140740964</v>
       </c>
       <c r="L42" t="n">
-        <v>776.0974404398714</v>
+        <v>776.0974404398712</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.387755825148</v>
+        <v>1221.437051126042</v>
       </c>
       <c r="N42" t="n">
-        <v>1694.922825772559</v>
+        <v>1694.92282577256</v>
       </c>
       <c r="O42" t="n">
         <v>2104.065497722339</v>
       </c>
       <c r="P42" t="n">
-        <v>2413.105496373884</v>
+        <v>2413.105496373885</v>
       </c>
       <c r="Q42" t="n">
         <v>2569.771354871099</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>772.2192266380463</v>
+        <v>772.2192266380455</v>
       </c>
       <c r="C43" t="n">
-        <v>651.0284011721222</v>
+        <v>651.0284011721214</v>
       </c>
       <c r="D43" t="n">
-        <v>548.6571192217694</v>
+        <v>548.6571192217687</v>
       </c>
       <c r="E43" t="n">
-        <v>448.4893831013593</v>
+        <v>448.4893831013585</v>
       </c>
       <c r="F43" t="n">
-        <v>349.3447930654318</v>
+        <v>349.3447930654311</v>
       </c>
       <c r="G43" t="n">
         <v>229.3807756514051</v>
@@ -7564,10 +7564,10 @@
         <v>130.8508153384047</v>
       </c>
       <c r="I43" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J43" t="n">
-        <v>172.538674417746</v>
+        <v>172.5386744177461</v>
       </c>
       <c r="K43" t="n">
         <v>422.5765729123013</v>
@@ -7579,25 +7579,25 @@
         <v>1174.926646074655</v>
       </c>
       <c r="N43" t="n">
-        <v>1562.149627512092</v>
+        <v>1562.149627512091</v>
       </c>
       <c r="O43" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P43" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q43" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R43" t="n">
-        <v>2267.486223207489</v>
+        <v>2267.486223207488</v>
       </c>
       <c r="S43" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T43" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486997</v>
       </c>
       <c r="U43" t="n">
         <v>1708.024692442766</v>
@@ -7606,13 +7606,13 @@
         <v>1501.085561698862</v>
       </c>
       <c r="W43" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X43" t="n">
-        <v>1079.16955568785</v>
+        <v>1079.169555687849</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.122334006303</v>
+        <v>906.1223340063023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.424002727735</v>
+        <v>2031.424002727734</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.206843249306</v>
+        <v>1710.206843249305</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.643606968277</v>
+        <v>1061.643606968276</v>
       </c>
       <c r="F44" t="n">
-        <v>698.4030596406528</v>
+        <v>698.403059640652</v>
       </c>
       <c r="G44" t="n">
         <v>331.0613910392008</v>
@@ -7646,28 +7646,28 @@
         <v>81.07387258773235</v>
       </c>
       <c r="J44" t="n">
-        <v>268.7405100675294</v>
+        <v>268.7405100675293</v>
       </c>
       <c r="K44" t="n">
-        <v>921.6466287839756</v>
+        <v>600.7426703385223</v>
       </c>
       <c r="L44" t="n">
-        <v>1370.426428097295</v>
+        <v>1463.007072056787</v>
       </c>
       <c r="M44" t="n">
-        <v>1901.44986288737</v>
+        <v>1994.030506846862</v>
       </c>
       <c r="N44" t="n">
-        <v>2445.679620399091</v>
+        <v>2538.260264358583</v>
       </c>
       <c r="O44" t="n">
-        <v>2946.245086630956</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P44" t="n">
-        <v>3657.545851299305</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q44" t="n">
-        <v>3930.514690545769</v>
+        <v>3995.573946220022</v>
       </c>
       <c r="R44" t="n">
         <v>4053.693629386617</v>
@@ -7679,19 +7679,19 @@
         <v>3832.519973669374</v>
       </c>
       <c r="U44" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.416158450931</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X44" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.278485329874</v>
+        <v>2370.278485329873</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H45" t="n">
-        <v>90.12164802936496</v>
+        <v>90.12164802936498</v>
       </c>
       <c r="I45" t="n">
         <v>81.07387258773235</v>
@@ -7728,22 +7728,22 @@
         <v>174.0289892685331</v>
       </c>
       <c r="K45" t="n">
-        <v>411.0589140740965</v>
+        <v>413.0096187732029</v>
       </c>
       <c r="L45" t="n">
-        <v>776.0974404398714</v>
+        <v>778.0481451389777</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.437051126042</v>
+        <v>1223.387755825148</v>
       </c>
       <c r="N45" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.92282577256</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P45" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373885</v>
       </c>
       <c r="Q45" t="n">
         <v>2569.771354871099</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.2192266380458</v>
+        <v>772.2192266380463</v>
       </c>
       <c r="C46" t="n">
-        <v>651.0284011721218</v>
+        <v>651.0284011721222</v>
       </c>
       <c r="D46" t="n">
-        <v>548.657119221769</v>
+        <v>548.6571192217694</v>
       </c>
       <c r="E46" t="n">
-        <v>448.4893831013588</v>
+        <v>448.4893831013593</v>
       </c>
       <c r="F46" t="n">
-        <v>349.3447930654314</v>
+        <v>349.3447930654318</v>
       </c>
       <c r="G46" t="n">
-        <v>229.3807756514047</v>
+        <v>229.3807756514051</v>
       </c>
       <c r="H46" t="n">
         <v>130.8508153384047</v>
@@ -7804,34 +7804,34 @@
         <v>81.07387258773235</v>
       </c>
       <c r="J46" t="n">
-        <v>172.538674417746</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K46" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L46" t="n">
-        <v>784.978880627271</v>
+        <v>784.9788806272711</v>
       </c>
       <c r="M46" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N46" t="n">
-        <v>1562.149627512091</v>
+        <v>1562.149627512092</v>
       </c>
       <c r="O46" t="n">
-        <v>1907.368689885055</v>
+        <v>1907.368689885056</v>
       </c>
       <c r="P46" t="n">
-        <v>2185.996379817861</v>
+        <v>2185.996379817862</v>
       </c>
       <c r="Q46" t="n">
-        <v>2309.865306516191</v>
+        <v>2309.865306516192</v>
       </c>
       <c r="R46" t="n">
         <v>2267.486223207489</v>
       </c>
       <c r="S46" t="n">
-        <v>2123.431752617692</v>
+        <v>2123.431752617693</v>
       </c>
       <c r="T46" t="n">
         <v>1949.382558486998</v>
@@ -7843,13 +7843,13 @@
         <v>1501.085561698862</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.413749123884</v>
+        <v>1259.413749123885</v>
       </c>
       <c r="X46" t="n">
         <v>1079.16955568785</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.1223340063026</v>
+        <v>906.122334006303</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>153.8571172950092</v>
@@ -8307,7 +8307,7 @@
         <v>146.0261571736144</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>123.7358983043281</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>123.7358983043278</v>
       </c>
       <c r="R12" t="n">
         <v>5.311583192059288</v>
@@ -8933,16 +8933,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>416.3519216796383</v>
       </c>
       <c r="N14" t="n">
-        <v>288.6370963582882</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.970408786975554</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.970408786976208</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>288.6370963582884</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>32.59361144797758</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>1.970408786975483</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.970408786976293</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>76.3221056983835</v>
+        <v>300.8037054391368</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.97040878697652</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.970408786975668</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>300.8037054391368</v>
       </c>
       <c r="N23" t="n">
-        <v>288.6370963582887</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.970408786976279</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.970408786975554</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>204.0369310197333</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>288.637096358288</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.970408786975554</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.970408786976208</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>92.20650910847354</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>288.6370963582889</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10194,13 +10194,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.970408786975554</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.97040878697652</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.49008923549172</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>33.2050360172108</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.970408786975497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.6222773927030119</v>
+        <v>2.592686179679413</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>53.82406131323262</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>357.3504485883761</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>1.970408786975469</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.6222773927030119</v>
+        <v>2.592686179679413</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>33.20503601721137</v>
       </c>
       <c r="K38" t="n">
-        <v>35.55174041689327</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.970408786975554</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.6222773927030119</v>
+        <v>2.592686179679413</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>291.0226041461593</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>34.94031584766108</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.970408786975497</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.97040878697652</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>320.4894153006711</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>26.49008923549084</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.970408786976265</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.970408786975668</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.6222773927030119</v>
+        <v>0.6222773927030403</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>121.3422422731958</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0773155190791</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>296.2011990986589</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57530806745785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>112.7332658511198</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.5990647763963</v>
       </c>
       <c r="U11" t="n">
         <v>251.007619148152</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2415877411569</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.45126393078941</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.9853140344841</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>212.2280864675134</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>218.4703442251596</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>26.89067534114728</v>
+        <v>125.135317687711</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9963263708497</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.5601417716501</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.22319636297829</v>
       </c>
       <c r="S16" t="n">
         <v>189.8818297712617</v>
       </c>
       <c r="T16" t="n">
-        <v>219.576606076751</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2121912711522</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>285.8129678557506</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26317,19 +26317,19 @@
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>33229.13367889118</v>
+        <v>33229.13367889117</v>
       </c>
       <c r="F2" t="n">
-        <v>36898.34498955251</v>
+        <v>36898.34498955253</v>
       </c>
       <c r="G2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321412</v>
       </c>
       <c r="H2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321411</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321413</v>
@@ -26338,22 +26338,22 @@
         <v>41052.08849321413</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321413</v>
       </c>
       <c r="M2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321413</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>41052.08849321412</v>
       </c>
-      <c r="O2" t="n">
-        <v>41052.08849321413</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321412</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>1073943.808392277</v>
       </c>
       <c r="F3" t="n">
-        <v>93498.78389439685</v>
+        <v>93498.78389439668</v>
       </c>
       <c r="G3" t="n">
-        <v>37814.32310989048</v>
+        <v>37814.32310989047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.021374298698698e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3938.434948795307</v>
+        <v>3938.434948795277</v>
       </c>
       <c r="L3" t="n">
-        <v>37814.32310989047</v>
+        <v>37814.32310989044</v>
       </c>
       <c r="M3" t="n">
         <v>191555.7021480792</v>
       </c>
       <c r="N3" t="n">
-        <v>56198.60183102546</v>
+        <v>56198.60183102549</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>8928.172928855114</v>
+        <v>8928.172928855111</v>
       </c>
       <c r="F4" t="n">
-        <v>23722.23361871939</v>
+        <v>23722.23361871941</v>
       </c>
       <c r="G4" t="n">
         <v>71255.32864280665</v>
       </c>
       <c r="H4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280671</v>
       </c>
       <c r="I4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280671</v>
       </c>
       <c r="J4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280669</v>
       </c>
       <c r="K4" t="n">
-        <v>71255.32864280668</v>
+        <v>71255.32864280671</v>
       </c>
       <c r="L4" t="n">
         <v>71255.32864280666</v>
@@ -26454,10 +26454,10 @@
         <v>71255.32864280665</v>
       </c>
       <c r="O4" t="n">
-        <v>71255.32864280662</v>
+        <v>71255.32864280668</v>
       </c>
       <c r="P4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280666</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>70578.96505477303</v>
       </c>
       <c r="F5" t="n">
-        <v>85295.02414724098</v>
+        <v>85295.02414724097</v>
       </c>
       <c r="G5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="H5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="M5" t="n">
         <v>89268.78955914771</v>
       </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
+        <v>89268.7895591477</v>
+      </c>
+      <c r="O5" t="n">
         <v>89268.78955914771</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89268.78955914771</v>
-      </c>
-      <c r="J5" t="n">
-        <v>89268.78955914771</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89268.78955914771</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89268.78955914773</v>
-      </c>
-      <c r="M5" t="n">
-        <v>89268.78955914773</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89268.78955914771</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89268.7895591477</v>
       </c>
       <c r="P5" t="n">
         <v>89268.78955914771</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396685.4411239623</v>
+        <v>-396689.8547018305</v>
       </c>
       <c r="C6" t="n">
         <v>-400976.3311671793</v>
@@ -26528,22 +26528,22 @@
         <v>-396032.4652604867</v>
       </c>
       <c r="E6" t="n">
-        <v>-1120221.812697014</v>
+        <v>-1120612.96043773</v>
       </c>
       <c r="F6" t="n">
-        <v>-165617.6966708047</v>
+        <v>-165825.3838459876</v>
       </c>
       <c r="G6" t="n">
         <v>-157286.3528186307</v>
       </c>
       <c r="H6" t="n">
-        <v>-119472.0297087402</v>
+        <v>-119472.0297087403</v>
       </c>
       <c r="I6" t="n">
-        <v>-119472.0297087402</v>
+        <v>-119472.0297087403</v>
       </c>
       <c r="J6" t="n">
-        <v>-119472.0297087402</v>
+        <v>-119472.0297087403</v>
       </c>
       <c r="K6" t="n">
         <v>-123410.4646575356</v>
@@ -26558,10 +26558,10 @@
         <v>-175670.6315397657</v>
       </c>
       <c r="O6" t="n">
-        <v>-119472.0297087402</v>
+        <v>-119472.0297087403</v>
       </c>
       <c r="P6" t="n">
-        <v>-119472.0297087402</v>
+        <v>-119472.0297087403</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="H2" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I2" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="J2" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="K2" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="L2" t="n">
         <v>47.26790388736309</v>
       </c>
       <c r="M2" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="N2" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="O2" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="P2" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>783.9729921983633</v>
+        <v>783.9729921983632</v>
       </c>
       <c r="F4" t="n">
         <v>1013.423407346654</v>
@@ -26817,10 +26817,10 @@
         <v>1013.423407346654</v>
       </c>
       <c r="L4" t="n">
-        <v>1013.423407346655</v>
+        <v>1013.423407346654</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.423407346655</v>
+        <v>1013.423407346654</v>
       </c>
       <c r="N4" t="n">
         <v>1013.423407346654</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.26790388736309</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1051.073721518924</v>
       </c>
       <c r="F3" t="n">
-        <v>35.11347942439716</v>
+        <v>35.11347942439693</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>768.6702546832282</v>
+        <v>768.6702546832281</v>
       </c>
       <c r="F4" t="n">
         <v>229.4504151482911</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.30273751513516</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>768.6702546832282</v>
+        <v>768.6702546832283</v>
       </c>
       <c r="N4" t="n">
-        <v>229.450415148291</v>
+        <v>229.4504151482911</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>768.6702546832282</v>
+        <v>768.6702546832281</v>
       </c>
       <c r="N4" t="n">
         <v>229.4504151482911</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5663804260146</v>
+        <v>134.6010260184174</v>
       </c>
       <c r="S5" t="n">
-        <v>197.1054258240356</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27701,13 +27701,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>96.93270672136141</v>
@@ -27749,19 +27749,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>213.2093222039017</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>193.0409253264044</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="7">
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H7" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.1060021487638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.6622781495295</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9698467333213</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27989,13 +27989,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>238.9629232838465</v>
       </c>
       <c r="X9" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>156.4896106304034</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,19 +28059,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>214.4669382249506</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="C17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="D17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="E17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="F17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="G17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="H17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="I17" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="T17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="U17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="V17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="W17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="X17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="C19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="D19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="E19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="F19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="G19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="H19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="I19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="J19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="K19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="L19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="M19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736293</v>
       </c>
       <c r="N19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="O19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="P19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="R19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="S19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="T19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="U19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="V19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="W19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="X19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736309</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I20" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="J22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="K22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="L22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="M22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="N22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="O22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="P22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="R22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="S22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I23" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736282</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="J25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="K25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="L25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="M25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="N25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="O25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="P25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="R25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="S25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I26" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="J28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="K28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="L28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="M28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="N28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="O28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="P28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="R28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="S28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I29" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="C31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="D31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="E31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="F31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="G31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="H31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="I31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="J31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="K31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="L31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="M31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="N31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="O31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="P31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="R31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="S31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="T31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="U31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="V31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="W31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="X31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.2679038873631</v>
+        <v>47.26790388736313</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>47.26790388736309</v>
       </c>
       <c r="I32" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="C35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="D35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="E35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="F35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="G35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="H35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="I35" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="T35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="U35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="V35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="W35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="X35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="C37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="D37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="E37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="F37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="G37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="H37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="I37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="J37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="K37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="L37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="M37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="N37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="O37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="P37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="R37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="S37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="T37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="U37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="V37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="W37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="X37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736306</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I38" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="J40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="K40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="L40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="N40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736407</v>
       </c>
       <c r="O40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="P40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="R40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="S40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="C41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="D41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="E41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="F41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="G41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="H41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="I41" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="T41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="U41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="V41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="W41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="X41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="C43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="D43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="E43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="F43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="G43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="H43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="I43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="J43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="K43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="L43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="M43" t="n">
-        <v>47.26790388736322</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="N43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="O43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="P43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="R43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="S43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="T43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="U43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="V43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="W43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="X43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="C44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="D44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="E44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="F44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="G44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="H44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="I44" t="n">
-        <v>42.13324810561235</v>
+        <v>42.13324810561238</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="T44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="U44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="V44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="W44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="X44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="C46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="D46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="E46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="F46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="G46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="H46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="I46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="J46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="K46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="L46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736333</v>
       </c>
       <c r="M46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="N46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="O46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="P46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="R46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="S46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="T46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="U46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="V46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="W46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="X46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736307</v>
       </c>
     </row>
   </sheetData>
@@ -31990,46 +31990,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H14" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I14" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J14" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K14" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L14" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M14" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N14" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O14" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P14" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R14" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S14" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T14" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H15" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I15" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J15" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K15" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L15" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M15" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N15" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O15" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P15" t="n">
         <v>446.1360222138709</v>
@@ -32102,10 +32102,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S15" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T15" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U15" t="n">
         <v>0.1537057359825455</v>
@@ -32151,7 +32151,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I16" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J16" t="n">
         <v>138.4799649464952</v>
@@ -32160,31 +32160,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L16" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M16" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N16" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O16" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P16" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q16" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R16" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S16" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T16" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U16" t="n">
         <v>0.1068380853386874</v>
@@ -32227,46 +32227,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H17" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I17" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J17" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K17" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L17" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M17" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N17" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O17" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P17" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R17" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S17" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T17" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H18" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I18" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J18" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K18" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L18" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M18" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N18" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O18" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P18" t="n">
         <v>446.1360222138709</v>
@@ -32339,10 +32339,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S18" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T18" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U18" t="n">
         <v>0.1537057359825455</v>
@@ -32388,7 +32388,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I19" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J19" t="n">
         <v>138.4799649464952</v>
@@ -32397,31 +32397,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L19" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M19" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N19" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O19" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P19" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q19" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R19" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S19" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T19" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U19" t="n">
         <v>0.1068380853386874</v>
@@ -32464,46 +32464,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H20" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I20" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J20" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K20" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L20" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M20" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N20" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O20" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P20" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R20" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S20" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T20" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H21" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I21" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J21" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K21" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L21" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M21" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N21" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O21" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P21" t="n">
         <v>446.1360222138709</v>
@@ -32576,10 +32576,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S21" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T21" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U21" t="n">
         <v>0.1537057359825455</v>
@@ -32625,7 +32625,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I22" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J22" t="n">
         <v>138.4799649464952</v>
@@ -32634,31 +32634,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L22" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M22" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N22" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O22" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P22" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q22" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R22" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S22" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T22" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U22" t="n">
         <v>0.1068380853386874</v>
@@ -32701,46 +32701,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H23" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I23" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J23" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K23" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L23" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M23" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N23" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O23" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P23" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q23" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R23" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S23" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T23" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H24" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I24" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J24" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K24" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L24" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M24" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N24" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O24" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P24" t="n">
         <v>446.1360222138709</v>
@@ -32813,10 +32813,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S24" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T24" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U24" t="n">
         <v>0.1537057359825455</v>
@@ -32862,7 +32862,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I25" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J25" t="n">
         <v>138.4799649464952</v>
@@ -32871,31 +32871,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L25" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M25" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N25" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O25" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P25" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q25" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R25" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S25" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T25" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U25" t="n">
         <v>0.1068380853386874</v>
@@ -32938,46 +32938,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H26" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I26" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J26" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K26" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L26" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M26" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N26" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O26" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P26" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q26" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R26" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S26" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T26" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H27" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I27" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J27" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K27" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L27" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M27" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N27" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O27" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P27" t="n">
         <v>446.1360222138709</v>
@@ -33050,10 +33050,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S27" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T27" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U27" t="n">
         <v>0.1537057359825455</v>
@@ -33099,7 +33099,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I28" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J28" t="n">
         <v>138.4799649464952</v>
@@ -33108,31 +33108,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L28" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M28" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N28" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O28" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P28" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q28" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R28" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S28" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T28" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U28" t="n">
         <v>0.1068380853386874</v>
@@ -33175,46 +33175,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H29" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I29" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J29" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K29" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L29" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M29" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N29" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O29" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P29" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q29" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R29" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S29" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T29" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H30" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I30" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J30" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K30" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L30" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M30" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N30" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O30" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P30" t="n">
         <v>446.1360222138709</v>
@@ -33287,10 +33287,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S30" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T30" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U30" t="n">
         <v>0.1537057359825455</v>
@@ -33336,7 +33336,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I31" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J31" t="n">
         <v>138.4799649464952</v>
@@ -33345,31 +33345,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L31" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M31" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N31" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O31" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P31" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q31" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R31" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S31" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T31" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U31" t="n">
         <v>0.1068380853386874</v>
@@ -33412,46 +33412,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H32" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I32" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J32" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K32" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L32" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M32" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N32" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O32" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P32" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R32" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S32" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T32" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H33" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I33" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J33" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K33" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L33" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M33" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N33" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O33" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P33" t="n">
         <v>446.1360222138709</v>
@@ -33524,10 +33524,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S33" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T33" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U33" t="n">
         <v>0.1537057359825455</v>
@@ -33573,7 +33573,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I34" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J34" t="n">
         <v>138.4799649464952</v>
@@ -33582,31 +33582,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L34" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M34" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N34" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O34" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P34" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q34" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R34" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S34" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T34" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U34" t="n">
         <v>0.1068380853386874</v>
@@ -33649,46 +33649,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H35" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I35" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J35" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K35" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L35" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M35" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N35" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O35" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P35" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q35" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R35" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S35" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T35" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H36" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I36" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J36" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K36" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L36" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M36" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N36" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O36" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P36" t="n">
         <v>446.1360222138709</v>
@@ -33761,10 +33761,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S36" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T36" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U36" t="n">
         <v>0.1537057359825455</v>
@@ -33810,7 +33810,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I37" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J37" t="n">
         <v>138.4799649464952</v>
@@ -33819,31 +33819,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L37" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M37" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N37" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O37" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P37" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q37" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R37" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S37" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T37" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U37" t="n">
         <v>0.1068380853386874</v>
@@ -33886,46 +33886,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H38" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I38" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J38" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K38" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L38" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M38" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N38" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O38" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P38" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q38" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R38" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S38" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T38" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H39" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I39" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J39" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K39" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L39" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M39" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N39" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O39" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P39" t="n">
         <v>446.1360222138709</v>
@@ -33998,10 +33998,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S39" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T39" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U39" t="n">
         <v>0.1537057359825455</v>
@@ -34047,7 +34047,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I40" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J40" t="n">
         <v>138.4799649464952</v>
@@ -34056,31 +34056,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L40" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M40" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N40" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O40" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P40" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q40" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R40" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S40" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T40" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U40" t="n">
         <v>0.1068380853386874</v>
@@ -34123,46 +34123,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H41" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I41" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J41" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K41" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L41" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M41" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N41" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O41" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P41" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q41" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R41" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S41" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T41" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H42" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I42" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J42" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K42" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L42" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M42" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N42" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O42" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P42" t="n">
         <v>446.1360222138709</v>
@@ -34235,10 +34235,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S42" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T42" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U42" t="n">
         <v>0.1537057359825455</v>
@@ -34284,7 +34284,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I43" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J43" t="n">
         <v>138.4799649464952</v>
@@ -34293,31 +34293,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L43" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M43" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N43" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O43" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P43" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q43" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R43" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S43" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T43" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U43" t="n">
         <v>0.1068380853386874</v>
@@ -34360,46 +34360,46 @@
         <v>4.366581712334956</v>
       </c>
       <c r="H44" t="n">
-        <v>44.71925496145038</v>
+        <v>44.71925496145037</v>
       </c>
       <c r="I44" t="n">
-        <v>168.3426414647936</v>
+        <v>168.3426414647935</v>
       </c>
       <c r="J44" t="n">
         <v>370.6081646072893</v>
       </c>
       <c r="K44" t="n">
-        <v>555.4455684904282</v>
+        <v>555.4455684904281</v>
       </c>
       <c r="L44" t="n">
-        <v>689.0793435692992</v>
+        <v>689.079343569299</v>
       </c>
       <c r="M44" t="n">
-        <v>766.7335410960359</v>
+        <v>766.7335410960358</v>
       </c>
       <c r="N44" t="n">
-        <v>779.1400913862077</v>
+        <v>779.1400913862075</v>
       </c>
       <c r="O44" t="n">
-        <v>735.719894484177</v>
+        <v>735.7198944841767</v>
       </c>
       <c r="P44" t="n">
-        <v>627.9199084609075</v>
+        <v>627.9199084609074</v>
       </c>
       <c r="Q44" t="n">
-        <v>471.5417008879118</v>
+        <v>471.5417008879117</v>
       </c>
       <c r="R44" t="n">
-        <v>274.292288487461</v>
+        <v>274.2922884874609</v>
       </c>
       <c r="S44" t="n">
-        <v>99.50348076983292</v>
+        <v>99.50348076983289</v>
       </c>
       <c r="T44" t="n">
         <v>19.11471144574628</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3493265369867964</v>
+        <v>0.3493265369867963</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.336327186934691</v>
+        <v>2.33632718693469</v>
       </c>
       <c r="H45" t="n">
-        <v>22.56400204223768</v>
+        <v>22.56400204223767</v>
       </c>
       <c r="I45" t="n">
-        <v>80.43933516419879</v>
+        <v>80.43933516419878</v>
       </c>
       <c r="J45" t="n">
         <v>220.7316839200008</v>
       </c>
       <c r="K45" t="n">
-        <v>377.2656054446251</v>
+        <v>377.265605444625</v>
       </c>
       <c r="L45" t="n">
-        <v>507.2801639877276</v>
+        <v>507.2801639877275</v>
       </c>
       <c r="M45" t="n">
-        <v>591.97202451411</v>
+        <v>591.9720245141099</v>
       </c>
       <c r="N45" t="n">
-        <v>607.6397625352643</v>
+        <v>607.639762535264</v>
       </c>
       <c r="O45" t="n">
-        <v>555.8716706563429</v>
+        <v>555.8716706563428</v>
       </c>
       <c r="P45" t="n">
         <v>446.1360222138709</v>
@@ -34472,10 +34472,10 @@
         <v>145.0572265712609</v>
       </c>
       <c r="S45" t="n">
-        <v>43.39625279240531</v>
+        <v>43.39625279240529</v>
       </c>
       <c r="T45" t="n">
-        <v>9.417038091197281</v>
+        <v>9.417038091197279</v>
       </c>
       <c r="U45" t="n">
         <v>0.1537057359825455</v>
@@ -34521,7 +34521,7 @@
         <v>17.41460791020604</v>
       </c>
       <c r="I46" t="n">
-        <v>58.90339771672962</v>
+        <v>58.90339771672961</v>
       </c>
       <c r="J46" t="n">
         <v>138.4799649464952</v>
@@ -34530,31 +34530,31 @@
         <v>227.5651217714039</v>
       </c>
       <c r="L46" t="n">
-        <v>291.2050079381488</v>
+        <v>291.2050079381487</v>
       </c>
       <c r="M46" t="n">
-        <v>307.0348509158309</v>
+        <v>307.0348509158308</v>
       </c>
       <c r="N46" t="n">
-        <v>299.7342484176875</v>
+        <v>299.7342484176874</v>
       </c>
       <c r="O46" t="n">
         <v>276.8530918076518</v>
       </c>
       <c r="P46" t="n">
-        <v>236.8956478909826</v>
+        <v>236.8956478909825</v>
       </c>
       <c r="Q46" t="n">
         <v>164.0142673424415</v>
       </c>
       <c r="R46" t="n">
-        <v>88.07019501419123</v>
+        <v>88.0701950141912</v>
       </c>
       <c r="S46" t="n">
         <v>34.13476826571058</v>
       </c>
       <c r="T46" t="n">
-        <v>8.368983351530504</v>
+        <v>8.368983351530503</v>
       </c>
       <c r="U46" t="n">
         <v>0.1068380853386874</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>15.30273751513505</v>
@@ -35027,7 +35027,7 @@
         <v>14.68444509028111</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M7" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>395.3056062276034</v>
       </c>
       <c r="P12" t="n">
-        <v>421.4751483191574</v>
+        <v>297.7392500148293</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.6073729997027</v>
+        <v>272.3432713040305</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K14" t="n">
-        <v>335.3557174454476</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L14" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M14" t="n">
-        <v>985.9008413615957</v>
+        <v>952.7392295484013</v>
       </c>
       <c r="N14" t="n">
-        <v>838.364124147905</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O14" t="n">
-        <v>505.6216830624902</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P14" t="n">
-        <v>396.686912705638</v>
+        <v>718.4856208771205</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.2360110134623</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R14" t="n">
-        <v>58.70675067332883</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K15" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L15" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M15" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N15" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O15" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P15" t="n">
-        <v>314.1320235865163</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2483419163787</v>
+        <v>160.2187507033549</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.12078482982241</v>
+        <v>45.12078482982238</v>
       </c>
       <c r="K16" t="n">
-        <v>205.2956299455211</v>
+        <v>205.295629945521</v>
       </c>
       <c r="L16" t="n">
-        <v>318.7950331984649</v>
+        <v>318.7950331984648</v>
       </c>
       <c r="M16" t="n">
-        <v>346.6187278776715</v>
+        <v>346.6187278776714</v>
       </c>
       <c r="N16" t="n">
         <v>343.866420796916</v>
       </c>
       <c r="O16" t="n">
-        <v>301.4382197216915</v>
+        <v>301.4382197216914</v>
       </c>
       <c r="P16" t="n">
-        <v>234.1742071558761</v>
+        <v>234.174207155876</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.8522240907471</v>
+        <v>77.85222409074707</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.6588752526768</v>
+        <v>189.562260080603</v>
       </c>
       <c r="K17" t="n">
-        <v>659.5011300166124</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L17" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M17" t="n">
-        <v>536.3873078687632</v>
+        <v>985.9008413615956</v>
       </c>
       <c r="N17" t="n">
-        <v>549.7270277896168</v>
+        <v>838.364124147905</v>
       </c>
       <c r="O17" t="n">
-        <v>505.6216830624902</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P17" t="n">
-        <v>396.686912705638</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R17" t="n">
-        <v>91.30036212130641</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>95.86446604030958</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K18" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L18" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M18" t="n">
-        <v>449.8379905920917</v>
+        <v>451.8083993790679</v>
       </c>
       <c r="N18" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O18" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P18" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.38868871718552</v>
+        <v>92.38868871718547</v>
       </c>
       <c r="K19" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L19" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M19" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650343</v>
       </c>
       <c r="N19" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O19" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P19" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432391</v>
       </c>
       <c r="Q19" t="n">
         <v>125.1201279781102</v>
@@ -36121,28 +36121,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K20" t="n">
-        <v>335.3557174454476</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L20" t="n">
-        <v>529.6350342976955</v>
+        <v>754.1166340384485</v>
       </c>
       <c r="M20" t="n">
-        <v>985.9008413615957</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N20" t="n">
-        <v>549.7270277896168</v>
+        <v>987.0739522016007</v>
       </c>
       <c r="O20" t="n">
-        <v>505.6216830624902</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P20" t="n">
-        <v>396.686912705638</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R20" t="n">
-        <v>58.70675067332883</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K21" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L21" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M21" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N21" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O21" t="n">
-        <v>413.2754262118984</v>
+        <v>415.2458349988748</v>
       </c>
       <c r="P21" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.2187507033544</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>252.5635338328842</v>
       </c>
       <c r="L22" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M22" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N22" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O22" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P22" t="n">
         <v>281.4421110432392</v>
@@ -36358,28 +36358,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K23" t="n">
-        <v>335.3557174454476</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L23" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M23" t="n">
-        <v>985.9008413615957</v>
+        <v>837.1910133078999</v>
       </c>
       <c r="N23" t="n">
-        <v>838.3641241479055</v>
+        <v>987.0739522016007</v>
       </c>
       <c r="O23" t="n">
-        <v>505.6216830624902</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P23" t="n">
-        <v>396.686912705638</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.2360110134623</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R23" t="n">
-        <v>58.70675067332883</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.8940572533341</v>
+        <v>95.86446604031035</v>
       </c>
       <c r="K24" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L24" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M24" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N24" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O24" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P24" t="n">
-        <v>314.1320235865163</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.38868871718549</v>
+        <v>92.38868871718552</v>
       </c>
       <c r="K25" t="n">
         <v>252.5635338328842</v>
@@ -36522,7 +36522,7 @@
         <v>366.062937085828</v>
       </c>
       <c r="M25" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N25" t="n">
         <v>391.1343246842791</v>
@@ -36595,28 +36595,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K26" t="n">
-        <v>539.392648465181</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L26" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M26" t="n">
-        <v>536.3873078687632</v>
+        <v>985.9008413615956</v>
       </c>
       <c r="N26" t="n">
-        <v>549.7270277896168</v>
+        <v>838.3641241479046</v>
       </c>
       <c r="O26" t="n">
-        <v>505.6216830624902</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P26" t="n">
-        <v>718.4856208771207</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R26" t="n">
-        <v>58.70675067332883</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K27" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L27" t="n">
-        <v>370.6961929948289</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M27" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N27" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O27" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P27" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.2483419163787</v>
+        <v>160.2187507033549</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>366.062937085828</v>
       </c>
       <c r="M28" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N28" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O28" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P28" t="n">
         <v>281.4421110432392</v>
@@ -36832,28 +36832,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K29" t="n">
-        <v>335.3557174454476</v>
+        <v>659.5011300166123</v>
       </c>
       <c r="L29" t="n">
-        <v>453.312928599312</v>
+        <v>545.5194377077853</v>
       </c>
       <c r="M29" t="n">
-        <v>985.9008413615957</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N29" t="n">
-        <v>549.7270277896168</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O29" t="n">
-        <v>794.2587794207791</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P29" t="n">
-        <v>396.686912705638</v>
+        <v>718.4856208771205</v>
       </c>
       <c r="Q29" t="n">
-        <v>249.2360110134623</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R29" t="n">
-        <v>58.70675067332883</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K30" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L30" t="n">
-        <v>370.6961929948289</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M30" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N30" t="n">
-        <v>476.298050451931</v>
+        <v>478.2684592389073</v>
       </c>
       <c r="O30" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P30" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>366.062937085828</v>
       </c>
       <c r="M31" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N31" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O31" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P31" t="n">
         <v>281.4421110432392</v>
@@ -37069,28 +37069,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K32" t="n">
-        <v>659.5011300166124</v>
+        <v>659.5011300166123</v>
       </c>
       <c r="L32" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M32" t="n">
-        <v>536.3873078687632</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N32" t="n">
-        <v>576.2171170251086</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O32" t="n">
-        <v>505.6216830624902</v>
+        <v>886.4218643252353</v>
       </c>
       <c r="P32" t="n">
-        <v>718.4856208771207</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.2360110134623</v>
+        <v>282.441047030673</v>
       </c>
       <c r="R32" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K33" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L33" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M33" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N33" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O33" t="n">
-        <v>415.2458349988739</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P33" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.970408786976373</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.3886887171855</v>
+        <v>92.38868871718547</v>
       </c>
       <c r="K34" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L34" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M34" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N34" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O34" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P34" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432391</v>
       </c>
       <c r="Q34" t="n">
         <v>125.1201279781102</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.6588752526768</v>
+        <v>189.562260080603</v>
       </c>
       <c r="K35" t="n">
-        <v>389.1797787586802</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L35" t="n">
-        <v>453.312928599312</v>
+        <v>810.6633771876878</v>
       </c>
       <c r="M35" t="n">
-        <v>985.9008413615957</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N35" t="n">
-        <v>549.7270277896168</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O35" t="n">
-        <v>505.6216830624902</v>
+        <v>886.4218643252353</v>
       </c>
       <c r="P35" t="n">
-        <v>396.686912705638</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q35" t="n">
-        <v>249.2360110134623</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R35" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>95.86446604030957</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K36" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L36" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M36" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N36" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O36" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P36" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.970408786976373</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.38868871718549</v>
+        <v>92.38868871718545</v>
       </c>
       <c r="K37" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L37" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M37" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N37" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O37" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P37" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432391</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.1201279781102</v>
+        <v>125.1201279781101</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>189.562260080603</v>
+        <v>222.7672960978144</v>
       </c>
       <c r="K38" t="n">
-        <v>370.9074578623409</v>
+        <v>659.5011300166123</v>
       </c>
       <c r="L38" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M38" t="n">
-        <v>536.3873078687632</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N38" t="n">
-        <v>549.7270277896168</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O38" t="n">
-        <v>886.4218643252356</v>
+        <v>886.4218643252353</v>
       </c>
       <c r="P38" t="n">
-        <v>718.4856208771207</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q38" t="n">
-        <v>249.2360110134623</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R38" t="n">
-        <v>58.70675067332883</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K39" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L39" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M39" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N39" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O39" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P39" t="n">
-        <v>314.1320235865163</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.970408786976373</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.38868871718549</v>
+        <v>92.38868871718543</v>
       </c>
       <c r="K40" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L40" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M40" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N40" t="n">
-        <v>391.1343246842791</v>
+        <v>391.1343246842801</v>
       </c>
       <c r="O40" t="n">
-        <v>348.7061236090546</v>
+        <v>348.7061236090545</v>
       </c>
       <c r="P40" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432391</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.1201279781102</v>
+        <v>125.1201279781101</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>358.6588752526768</v>
       </c>
       <c r="K41" t="n">
-        <v>335.3557174454476</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L41" t="n">
-        <v>453.312928599312</v>
+        <v>453.3129285993118</v>
       </c>
       <c r="M41" t="n">
-        <v>536.3873078687632</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N41" t="n">
-        <v>549.7270277896168</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O41" t="n">
-        <v>505.6216830624902</v>
+        <v>505.62168306249</v>
       </c>
       <c r="P41" t="n">
-        <v>687.7095168517973</v>
+        <v>718.4856208771205</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.551001673367</v>
+        <v>461.5510016733669</v>
       </c>
       <c r="R41" t="n">
-        <v>124.4231705463113</v>
+        <v>93.64706652098985</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K42" t="n">
-        <v>239.4241664702661</v>
+        <v>239.424166470266</v>
       </c>
       <c r="L42" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M42" t="n">
-        <v>451.8083993790672</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N42" t="n">
-        <v>476.298050451931</v>
+        <v>478.2684592389073</v>
       </c>
       <c r="O42" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P42" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.2483419163787</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.38868871718549</v>
+        <v>92.38868871718546</v>
       </c>
       <c r="K43" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L43" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M43" t="n">
-        <v>393.8866317650347</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N43" t="n">
         <v>391.1343246842791</v>
@@ -37953,10 +37953,10 @@
         <v>348.7061236090545</v>
       </c>
       <c r="P43" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432391</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.1201279781102</v>
+        <v>125.1201279781101</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>189.562260080603</v>
       </c>
       <c r="K44" t="n">
-        <v>659.5011300166124</v>
+        <v>335.3557174454475</v>
       </c>
       <c r="L44" t="n">
-        <v>453.312928599312</v>
+        <v>870.9741431497622</v>
       </c>
       <c r="M44" t="n">
-        <v>536.3873078687632</v>
+        <v>536.3873078687631</v>
       </c>
       <c r="N44" t="n">
-        <v>549.7270277896168</v>
+        <v>549.7270277896166</v>
       </c>
       <c r="O44" t="n">
-        <v>505.6216830624902</v>
+        <v>826.1110983631611</v>
       </c>
       <c r="P44" t="n">
-        <v>718.4856208771207</v>
+        <v>396.6869127056379</v>
       </c>
       <c r="Q44" t="n">
-        <v>275.7261002489532</v>
+        <v>249.2360110134622</v>
       </c>
       <c r="R44" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332877</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.8940572533341</v>
+        <v>93.89405725333407</v>
       </c>
       <c r="K45" t="n">
-        <v>239.4241664702661</v>
+        <v>241.3945752572423</v>
       </c>
       <c r="L45" t="n">
-        <v>368.7257842078534</v>
+        <v>368.7257842078533</v>
       </c>
       <c r="M45" t="n">
-        <v>449.8379905920917</v>
+        <v>449.8379905920916</v>
       </c>
       <c r="N45" t="n">
-        <v>476.298050451931</v>
+        <v>476.2980504519307</v>
       </c>
       <c r="O45" t="n">
-        <v>413.2754262118984</v>
+        <v>413.2754262118983</v>
       </c>
       <c r="P45" t="n">
-        <v>312.1616147995407</v>
+        <v>312.1616147995406</v>
       </c>
       <c r="Q45" t="n">
-        <v>160.2187507033544</v>
+        <v>158.2483419163786</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.38868871718549</v>
+        <v>92.38868871718546</v>
       </c>
       <c r="K46" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L46" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858281</v>
       </c>
       <c r="M46" t="n">
-        <v>393.8866317650346</v>
+        <v>393.8866317650345</v>
       </c>
       <c r="N46" t="n">
         <v>391.1343246842791</v>
@@ -38190,10 +38190,10 @@
         <v>348.7061236090545</v>
       </c>
       <c r="P46" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432391</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.1201279781102</v>
+        <v>125.1201279781101</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
